--- a/DOCS/ESP32-S3_PinOut_v3.xlsx
+++ b/DOCS/ESP32-S3_PinOut_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive - Tier 3 Tech\Badges\Project-NeoRogue\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-NeoRogue/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB912481-864F-4CA4-AE3D-19D917BE08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{EB912481-864F-4CA4-AE3D-19D917BE08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C6173A-FD75-4B23-929A-CCA7A2551E21}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2100" windowWidth="21600" windowHeight="15180" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
+    <workbookView xWindow="5730" yWindow="4280" windowWidth="28800" windowHeight="16240" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>OLED SDA</t>
-  </si>
-  <si>
-    <t>OLED SDL</t>
-  </si>
-  <si>
     <t>buttons Right</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>TFT_BLK</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>SDL</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +352,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -365,10 +371,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -533,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,18 +692,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD30EE-C904-4F4F-9228-2669C6EE5ACB}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,458 +711,472 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/ESP32-S3_PinOut_v3.xlsx
+++ b/DOCS/ESP32-S3_PinOut_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-NeoRogue/DOCS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Project-NeoRogue\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{EB912481-864F-4CA4-AE3D-19D917BE08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C6173A-FD75-4B23-929A-CCA7A2551E21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35155F-F459-43F0-9769-63D528295031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4280" windowWidth="28800" windowHeight="16240" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -48,21 +48,6 @@
   </si>
   <si>
     <t>LED</t>
-  </si>
-  <si>
-    <t>buttons Right</t>
-  </si>
-  <si>
-    <t>button Center</t>
-  </si>
-  <si>
-    <t>button Up</t>
-  </si>
-  <si>
-    <t>button Down</t>
-  </si>
-  <si>
-    <t>button Left</t>
   </si>
   <si>
     <t>Feel Lucky</t>
@@ -692,18 +677,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD30EE-C904-4F4F-9228-2669C6EE5ACB}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,472 +696,462 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/ESP32-S3_PinOut_v3.xlsx
+++ b/DOCS/ESP32-S3_PinOut_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Project-NeoRogue\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35155F-F459-43F0-9769-63D528295031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CC8E0-DF07-45F1-8DDE-7A63F0EE1BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
+    <workbookView xWindow="4515" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -281,22 +270,22 @@
     <t>SAO/TFT_CS</t>
   </si>
   <si>
-    <t>SAO/TFT_SCL</t>
-  </si>
-  <si>
-    <t>SAO/TFT_SCA</t>
-  </si>
-  <si>
     <t>TFT_RST</t>
   </si>
   <si>
     <t>TFT_BLK</t>
   </si>
   <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>SDL</t>
+    <t>TFT_SCL</t>
+  </si>
+  <si>
+    <t>SAO/BATTERY SDA</t>
+  </si>
+  <si>
+    <t>SAO/BATTERY SDL</t>
+  </si>
+  <si>
+    <t>TFT_SCA</t>
   </si>
 </sst>
 </file>
@@ -677,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD30EE-C904-4F4F-9228-2669C6EE5ACB}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +747,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>33</v>
@@ -768,7 +757,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -778,7 +767,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -786,7 +775,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -992,7 +981,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>56</v>
@@ -1046,7 +1035,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>26</v>

--- a/DOCS/ESP32-S3_PinOut_v3.xlsx
+++ b/DOCS/ESP32-S3_PinOut_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Project-NeoRogue\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CC8E0-DF07-45F1-8DDE-7A63F0EE1BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411129EF-1803-4D62-AC2A-364D90143B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
+    <workbookView xWindow="-25020" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD30EE-C904-4F4F-9228-2669C6EE5ACB}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
@@ -902,9 +904,6 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>

--- a/DOCS/ESP32-S3_PinOut_v3.xlsx
+++ b/DOCS/ESP32-S3_PinOut_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Project-NeoRogue\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411129EF-1803-4D62-AC2A-364D90143B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F6991-17A9-47B0-9C4A-8CB88714A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25020" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
+    <workbookView xWindow="6420" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>Task</t>
   </si>
@@ -286,13 +286,25 @@
   </si>
   <si>
     <t>TFT_SCA</t>
+  </si>
+  <si>
+    <t>SAO_GPIO1</t>
+  </si>
+  <si>
+    <t>SAO_GPIO2</t>
+  </si>
+  <si>
+    <t>DOES NOT EXIST</t>
+  </si>
+  <si>
+    <t>Not connected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +314,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,11 +365,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD30EE-C904-4F4F-9228-2669C6EE5ACB}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +895,9 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
@@ -880,31 +905,40 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="A27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -980,9 +1014,9 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="1"/>
@@ -990,9 +1024,9 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D36" t="s">
@@ -1107,7 +1141,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
@@ -1117,7 +1153,9 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>25</v>
       </c>
@@ -1127,7 +1165,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>59</v>
       </c>

--- a/DOCS/ESP32-S3_PinOut_v3.xlsx
+++ b/DOCS/ESP32-S3_PinOut_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Project-NeoRogue\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-NeoRogue/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F6991-17A9-47B0-9C4A-8CB88714A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8C6F6991-17A9-47B0-9C4A-8CB88714A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49650829-3D87-41A3-A86A-E895ABB7EE0F}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
+    <workbookView xWindow="1380" yWindow="1560" windowWidth="37020" windowHeight="17360" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +352,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -365,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -373,6 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,18 +696,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD30EE-C904-4F4F-9228-2669C6EE5ACB}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -726,7 +733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -734,7 +741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -742,7 +749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>36</v>
@@ -752,7 +759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -760,7 +767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -768,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>83</v>
       </c>
@@ -778,7 +785,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
@@ -788,7 +795,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -796,7 +803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -804,7 +811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -812,7 +819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -820,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -828,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -836,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -844,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -852,7 +859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -860,7 +867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -868,7 +875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -876,7 +883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -884,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -894,17 +901,17 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -914,7 +921,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>88</v>
       </c>
@@ -924,7 +931,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
@@ -934,7 +941,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
@@ -942,7 +949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -952,7 +959,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -962,7 +969,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -972,7 +979,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -982,7 +989,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -992,7 +999,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -1002,7 +1009,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -1012,7 +1019,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -1022,7 +1029,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -1076,11 +1083,11 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="2"/>
@@ -1088,11 +1095,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="2"/>
@@ -1100,11 +1107,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="2"/>
@@ -1112,11 +1119,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="2"/>
@@ -1124,7 +1131,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -1174,7 +1181,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>3</v>
       </c>

--- a/DOCS/ESP32-S3_PinOut_v3.xlsx
+++ b/DOCS/ESP32-S3_PinOut_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-NeoRogue/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8C6F6991-17A9-47B0-9C4A-8CB88714A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49650829-3D87-41A3-A86A-E895ABB7EE0F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8C6F6991-17A9-47B0-9C4A-8CB88714A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106F2479-236C-407C-9F1F-47BEF8DD152B}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1560" windowWidth="37020" windowHeight="17360" xr2:uid="{E624352D-2738-4320-A509-A11709D61611}"/>
   </bookViews>
@@ -694,6 +694,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD30EE-C904-4F4F-9228-2669C6EE5ACB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
@@ -1197,6 +1200,6 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="93" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>